--- a/data/hotels_by_city/Houston/Houston_shard_546.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_546.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d10150332-Reviews-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-Pasadena.h13260253.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531617241926&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=e8207420-b386-40c7-b827-52ec9501d7d1&amp;mctc=9&amp;exp_dp=180&amp;exp_ts=1531617242492&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,465 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r594873380-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>10150332</t>
+  </si>
+  <si>
+    <t>594873380</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>My family stayed here because we had a very early morning flight out of Hobby and the hotel was only 15 minutes from the airport. I was pleasantly surprised, the hotel was very nice, the rooms are big and clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>My family stayed here because we had a very early morning flight out of Hobby and the hotel was only 15 minutes from the airport. I was pleasantly surprised, the hotel was very nice, the rooms are big and clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r593584801-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>593584801</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>The hotel looks fairy new. We were upgraded to suite as Marriott gold member. The contemporary-designed room was large and neat. Kitchenette in room was very clean that made me think we were the first user. Pool area looks great but we did not get the chance to use it. The breakfast was probably the best among the hotels that offer free breakfast. Will definitely go back if we have morning flight in HOU.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The hotel looks fairy new. We were upgraded to suite as Marriott gold member. The contemporary-designed room was large and neat. Kitchenette in room was very clean that made me think we were the first user. Pool area looks great but we did not get the chance to use it. The breakfast was probably the best among the hotels that offer free breakfast. Will definitely go back if we have morning flight in HOU.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r584653456-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>584653456</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Great Place to stay , Comfortable</t>
+  </si>
+  <si>
+    <t>The rooms are very spacious and comfortable. The Kitchenette is an added bonus in case you want to break away from restaurant food . Very convenient in case you are travelling for a few weeks. The Exercise room and the pool will help you to relax after a day's hard work.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>The rooms are very spacious and comfortable. The Kitchenette is an added bonus in case you want to break away from restaurant food . Very convenient in case you are travelling for a few weeks. The Exercise room and the pool will help you to relax after a day's hard work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r525745172-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>525745172</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome!!</t>
+  </si>
+  <si>
+    <t>Management and staff are excellent !! Hotel and rooms are always clean and smelling fresh. This has become our second home and we could not think of staying anywhere else while we are in town. Will not disappoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Management and staff are excellent !! Hotel and rooms are always clean and smelling fresh. This has become our second home and we could not think of staying anywhere else while we are in town. Will not disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r513353240-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>513353240</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel, Excellent Services, Excellent location</t>
+  </si>
+  <si>
+    <t>This is a new hotel, modern decor, with the best suites I've stayed in for some time. The staff is very professional, cordial, and very helpful. MD checked us in and even helped me book an extra day at the hotel. Awesome guy and an asset to Marriott. Continental breakfast was fabulous with fresh fruit and fresh breakfast food items. The suite we stayed in had everything, from a functional small kitchen, to an office work station, a fabulous bathroom, and one of the most comfortable king size bed I've had at an hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel, modern decor, with the best suites I've stayed in for some time. The staff is very professional, cordial, and very helpful. MD checked us in and even helped me book an extra day at the hotel. Awesome guy and an asset to Marriott. Continental breakfast was fabulous with fresh fruit and fresh breakfast food items. The suite we stayed in had everything, from a functional small kitchen, to an office work station, a fabulous bathroom, and one of the most comfortable king size bed I've had at an hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r511517382-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>511517382</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>One of the best hotels I've stayed at</t>
+  </si>
+  <si>
+    <t>Friendly and wonderfully helpful staff, new facilities, big rooms, clean sheets. Breakfast included with stay. This continue to be one of my preferred places to stay when in Houston for work. The staff really make the difference. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Friendly and wonderfully helpful staff, new facilities, big rooms, clean sheets. Breakfast included with stay. This continue to be one of my preferred places to stay when in Houston for work. The staff really make the difference. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r495100509-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>495100509</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Pasadena busness</t>
+  </si>
+  <si>
+    <t>Very nice rooms and hotel that is less that 1 year old.Close to restaurants and shopping.Above average breakfast , and social nights 3 times a week which is nice.lack of coffee in the lobby is the only thing I can say bad about this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Very nice rooms and hotel that is less that 1 year old.Close to restaurants and shopping.Above average breakfast , and social nights 3 times a week which is nice.lack of coffee in the lobby is the only thing I can say bad about this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r489616281-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>489616281</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>This is an amazing hotel, super clean, our room was spacious and everything in our room was super clean and neat. We stayed in other Marriott properties in the past, but nothing like this, My kids enjoyed the pool every day, we ate breakfast every day. There are some many restaurants near the hotels. The staff at this hotels were awesome!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>This is an amazing hotel, super clean, our room was spacious and everything in our room was super clean and neat. We stayed in other Marriott properties in the past, but nothing like this, My kids enjoyed the pool every day, we ate breakfast every day. There are some many restaurants near the hotels. The staff at this hotels were awesome!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r487156236-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>487156236</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newer hotel.  Restaurants across the street. </t>
+  </si>
+  <si>
+    <t>As you travel to this hotel from the airport and get closer , you realize you may not be in the best part of town but once you arrive at the Hotel, you see it is brand-new (built within the last year) and there are restaurants across the street that are new and in general the area around the hotel is quite safe.The rooms are fairly modern and it was a very pleasant stay.  The manager at the front desk as well as several of the employees working the front desk were extremely friendly and accommodating. The hotel and room was very clean.Five stars!   Very happy with this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>As you travel to this hotel from the airport and get closer , you realize you may not be in the best part of town but once you arrive at the Hotel, you see it is brand-new (built within the last year) and there are restaurants across the street that are new and in general the area around the hotel is quite safe.The rooms are fairly modern and it was a very pleasant stay.  The manager at the front desk as well as several of the employees working the front desk were extremely friendly and accommodating. The hotel and room was very clean.Five stars!   Very happy with this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r475672604-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>475672604</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>New hotel, different from other residence inn</t>
+  </si>
+  <si>
+    <t>This looks like a new version of Residence Inn hotel. Rooms and baths had very contemporary look and feel. Breakfast at residence inn is usual good one. they also have additional features like a mini golf area for family fun.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>This looks like a new version of Residence Inn hotel. Rooms and baths had very contemporary look and feel. Breakfast at residence inn is usual good one. they also have additional features like a mini golf area for family fun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r475319783-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>475319783</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel.  Rooms are fabulous with the kitchen area and sitting areas.  Love the bathroom.  Property in clean and well kept. Stay very nice and professional.  Great location easy in/out.  Breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel.  Rooms are fabulous with the kitchen area and sitting areas.  Love the bathroom.  Property in clean and well kept. Stay very nice and professional.  Great location easy in/out.  Breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r474997690-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>474997690</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>cannot ask for more</t>
+  </si>
+  <si>
+    <t>cannot ask for moreThis facility has the best staff, service and amenities.The interiors and exteriors are beautiful and professionally designed. The rooms are awesome. The frontdesk folks are always cheerful and helpful. The folks at the breakfast area are very professional, replenish food items as and when necessary - wonderful service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>cannot ask for moreThis facility has the best staff, service and amenities.The interiors and exteriors are beautiful and professionally designed. The rooms are awesome. The frontdesk folks are always cheerful and helpful. The folks at the breakfast area are very professional, replenish food items as and when necessary - wonderful service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r472519138-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>472519138</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Fabulous</t>
+  </si>
+  <si>
+    <t>The hotel is great and the staff is excellent. This was the third time my family has stayed at this property.  We have been very satisfied with the hotel and the staff every time. The inside and outside are always immaculate.  We always get the one bedroom suite and they are very spacious.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is great and the staff is excellent. This was the third time my family has stayed at this property.  We have been very satisfied with the hotel and the staff every time. The inside and outside are always immaculate.  We always get the one bedroom suite and they are very spacious.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r472517166-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>472517166</t>
+  </si>
+  <si>
+    <t>No good</t>
+  </si>
+  <si>
+    <t>Had an issue during check in due to the night clerk. The same female was yelling to our team from down the hall for us adults to stop running, very unprofessional. Called and emailed about the issue and all they did was excuse the individual for her actions. MoreShow less</t>
+  </si>
+  <si>
+    <t>Had an issue during check in due to the night clerk. The same female was yelling to our team from down the hall for us adults to stop running, very unprofessional. Called and emailed about the issue and all they did was excuse the individual for her actions. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r472504273-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>472504273</t>
+  </si>
+  <si>
+    <t>Fort Worth, TX</t>
+  </si>
+  <si>
+    <t>Excellent stay for spring break! Nice rooms, free breakfast, friendly and professional staff and very clean. Rooms were very spacious and interior was very beautiful. Close to all the attractions. Would definitely recommend this hotel to family and friends. MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent stay for spring break! Nice rooms, free breakfast, friendly and professional staff and very clean. Rooms were very spacious and interior was very beautiful. Close to all the attractions. Would definitely recommend this hotel to family and friends. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r454362799-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>454362799</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Billing Nightmare</t>
+  </si>
+  <si>
+    <t>Booked a room here in advance via Priceline and paid in full before arriving.  As we were checking out the following morning - the attendant wanted to run our card again.  Initially she said for incidentals.  We were already leaving and knew that is generally done at check-in so we questioned the billing.  Not only had we paid the room in full through Priceline...the hotel itself had charged for the room as well, along with incidentals for $120 and another charge of $20 to verify the card.  Then on top of that there was ANOTHER charge for the room also pending!  The woman could not give us a receipt of any type and hand wrote out all the charges that were assessed and would be credited back explaining that she would cancel the pending room charge and credit back the one that had already run.  It was insane for a new hotel - considering we'd called to verify arrival ahead of time and paid in full as well.  That being said...the rooms are cozy...clean, and comfortable.  The bed is super comfy, the shower roomy and nice (though the water didn't get hot enough)...and the kitchenette is well stocked.  If we had had no billing issues - would have been a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>ACDupont, General Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Booked a room here in advance via Priceline and paid in full before arriving.  As we were checking out the following morning - the attendant wanted to run our card again.  Initially she said for incidentals.  We were already leaving and knew that is generally done at check-in so we questioned the billing.  Not only had we paid the room in full through Priceline...the hotel itself had charged for the room as well, along with incidentals for $120 and another charge of $20 to verify the card.  Then on top of that there was ANOTHER charge for the room also pending!  The woman could not give us a receipt of any type and hand wrote out all the charges that were assessed and would be credited back explaining that she would cancel the pending room charge and credit back the one that had already run.  It was insane for a new hotel - considering we'd called to verify arrival ahead of time and paid in full as well.  That being said...the rooms are cozy...clean, and comfortable.  The bed is super comfy, the shower roomy and nice (though the water didn't get hot enough)...and the kitchenette is well stocked.  If we had had no billing issues - would have been a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r445434546-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>445434546</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I had a nice visit to this location.  The property is new.  I was greeted by a warm, friendly front desk team.  The rooms include a kitchen, small bar to sit at, a couch, a spacious desk to work at, and a nicely sized restroom.  The room was comfortable and HVAC worked well.  The property was clean and the location was right off the Beltway.  TV had some popular streaming channels, however the internet connection was too slow for the application to play properly.  Overall internet for devices was sufficient though.  I did find the walls to be somewhat thin.  I could hear the neighbors alarm clock going off in the morning.  I could also hear my TV in the hallway from about 10 feet away.  The property has a nice little breakfast in the morning to help get your day started.  The breakfast selection was the typical no-frills that you find at any hotel these days with a free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ACDupont, General Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>I had a nice visit to this location.  The property is new.  I was greeted by a warm, friendly front desk team.  The rooms include a kitchen, small bar to sit at, a couch, a spacious desk to work at, and a nicely sized restroom.  The room was comfortable and HVAC worked well.  The property was clean and the location was right off the Beltway.  TV had some popular streaming channels, however the internet connection was too slow for the application to play properly.  Overall internet for devices was sufficient though.  I did find the walls to be somewhat thin.  I could hear the neighbors alarm clock going off in the morning.  I could also hear my TV in the hallway from about 10 feet away.  The property has a nice little breakfast in the morning to help get your day started.  The breakfast selection was the typical no-frills that you find at any hotel these days with a free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r436555038-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>436555038</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!</t>
+  </si>
+  <si>
+    <t>When you go to a new place, you hope for the best. Well, this hotel was exactly that. Conveniently located southeast of Houston's Hobby Airport, it was easy to get to and get in and out of.The hotel itself is almost brand new. The lobby has a fresh, modern feel and the room was just perfect. As a Residence Inn, the hotel equips it's rooms with cooktop, microwave, dishwasher, and full-sized fridge.  You never really have to leave if you don't want to. If you do choose to go explore, there is abundant shopping and plenty of places to eat close by.The hotel has a staff that is very friendly. We were greeted each time we came in, came down for breakfast, or passed by the desk on our way out.Breakfast is not quite restaurant-quality but remember: it's included with your stay, and there is a nice selection: scrambled eggs, breakfast meats, oatmeal, fresh waffles, and of course cold choices like cereal, fruit, and yogurt.We stayed using reward points, so I can't speak to value for your money, but all in all I highly recommend the property and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When you go to a new place, you hope for the best. Well, this hotel was exactly that. Conveniently located southeast of Houston's Hobby Airport, it was easy to get to and get in and out of.The hotel itself is almost brand new. The lobby has a fresh, modern feel and the room was just perfect. As a Residence Inn, the hotel equips it's rooms with cooktop, microwave, dishwasher, and full-sized fridge.  You never really have to leave if you don't want to. If you do choose to go explore, there is abundant shopping and plenty of places to eat close by.The hotel has a staff that is very friendly. We were greeted each time we came in, came down for breakfast, or passed by the desk on our way out.Breakfast is not quite restaurant-quality but remember: it's included with your stay, and there is a nice selection: scrambled eggs, breakfast meats, oatmeal, fresh waffles, and of course cold choices like cereal, fruit, and yogurt.We stayed using reward points, so I can't speak to value for your money, but all in all I highly recommend the property and would definitely stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1000,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1032,1201 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>195</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_546.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r611789046-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>10150332</t>
+  </si>
+  <si>
+    <t>611789046</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Overall pleasant stay: good location and nice staff</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn for 8 nights and that says it all: if not good, we would have left. All staff was very kind, efficient and helpful. Berence in the breakfast room was always there with a lovely smile on her face, had a little chat with her guests thereby not neglecting the work which had to be done. She even kept me my preferred 'Earl Grey' teabags. Room was cleaned immaculous on a daily basis. There was one thing which we liked less and that had to do with some guests: they used the backdoor as their smoking as well as beer drinking area and kept the door open by using a rock. Apart from the awful cigaret smell, it felt uncomfortable entering through the back door where people where having a beer and smoked a cigaret. This is not good for the hotel's image. The fact that apparently this is tolerated by the hotel, made me decide the hotel not to rate with 5 but with 4 stars onlyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn for 8 nights and that says it all: if not good, we would have left. All staff was very kind, efficient and helpful. Berence in the breakfast room was always there with a lovely smile on her face, had a little chat with her guests thereby not neglecting the work which had to be done. She even kept me my preferred 'Earl Grey' teabags. Room was cleaned immaculous on a daily basis. There was one thing which we liked less and that had to do with some guests: they used the backdoor as their smoking as well as beer drinking area and kept the door open by using a rock. Apart from the awful cigaret smell, it felt uncomfortable entering through the back door where people where having a beer and smoked a cigaret. This is not good for the hotel's image. The fact that apparently this is tolerated by the hotel, made me decide the hotel not to rate with 5 but with 4 stars onlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r605460421-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>605460421</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent facility and service</t>
+  </si>
+  <si>
+    <t>Excellent service by everyone.  Marlene at the front desk was superb and helpful,  not to mention very professional. High end finishes in the room which was clean and comfortable. Wonderful breakfast. Easy to find and close to restaurantsMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Excellent service by everyone.  Marlene at the front desk was superb and helpful,  not to mention very professional. High end finishes in the room which was clean and comfortable. Wonderful breakfast. Easy to find and close to restaurantsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r596865216-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>596865216</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We spent one night before moving into a hotel downtown Houston,  The service was great and the complimentary breakfast was sufficient,  The hotel is new and the rooms are clean and comfy.  It is convenient to several restaurants and the airport,MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>We spent one night before moving into a hotel downtown Houston,  The service was great and the complimentary breakfast was sufficient,  The hotel is new and the rooms are clean and comfy.  It is convenient to several restaurants and the airport,More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r594873380-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>10150332</t>
-  </si>
-  <si>
     <t>594873380</t>
   </si>
   <si>
@@ -174,10 +258,10 @@
     <t>My family stayed here because we had a very early morning flight out of Hobby and the hotel was only 15 minutes from the airport. I was pleasantly surprised, the hotel was very nice, the rooms are big and clean. MoreShow less</t>
   </si>
   <si>
-    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
   </si>
   <si>
     <t>My family stayed here because we had a very early morning flight out of Hobby and the hotel was only 15 minutes from the airport. I was pleasantly surprised, the hotel was very nice, the rooms are big and clean. More</t>
@@ -201,7 +285,10 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
   </si>
   <si>
     <t>The hotel looks fairy new. We were upgraded to suite as Marriott gold member. The contemporary-designed room was large and neat. Kitchenette in room was very clean that made me think we were the first user. Pool area looks great but we did not get the chance to use it. The breakfast was probably the best among the hotels that offer free breakfast. Will definitely go back if we have morning flight in HOU.More</t>
@@ -225,9 +312,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded June 4, 2018</t>
   </si>
   <si>
@@ -237,6 +321,60 @@
     <t>The rooms are very spacious and comfortable. The Kitchenette is an added bonus in case you want to break away from restaurant food . Very convenient in case you are travelling for a few weeks. The Exercise room and the pool will help you to relax after a day's hard work.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r541001641-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>541001641</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Warm and Friendly Stay</t>
+  </si>
+  <si>
+    <t>My stay there was great, the staff was warm and friendly. My favorite was the breakfast in the mornings a variety of things to chose from and the staff made sure everything was fully stocked. The bedroom was spacious, quiet and ideal for getting plenty of rest. This hotel is not far from shopping and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>My stay there was great, the staff was warm and friendly. My favorite was the breakfast in the mornings a variety of things to chose from and the staff made sure everything was fully stocked. The bedroom was spacious, quiet and ideal for getting plenty of rest. This hotel is not far from shopping and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r530067743-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>530067743</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>My husband had just had surgery 3 weeks ago. I was bringing in our 2 suitcases and a few other bags. It was really hot that day. I was kinda struggling. My husband was checking in and I was walking up close to door when Elizabeth and Astric came running outside to help me. Then got me in and giving me bottles of cold water. They just went way and beyond to help me. Just an incredible act of kindness!!!!!  Thank you two so very much!!!Next couple of days we were checking out and Shannon and Alex came to my recuse again. Another incredible act!!! Hotel was spotless, bed so comfortable, all employees awesome!!! This is one hotel y'all won't want to miss!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>My husband had just had surgery 3 weeks ago. I was bringing in our 2 suitcases and a few other bags. It was really hot that day. I was kinda struggling. My husband was checking in and I was walking up close to door when Elizabeth and Astric came running outside to help me. Then got me in and giving me bottles of cold water. They just went way and beyond to help me. Just an incredible act of kindness!!!!!  Thank you two so very much!!!Next couple of days we were checking out and Shannon and Alex came to my recuse again. Another incredible act!!! Hotel was spotless, bed so comfortable, all employees awesome!!! This is one hotel y'all won't want to miss!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r525745172-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -252,9 +390,6 @@
     <t>Management and staff are excellent !! Hotel and rooms are always clean and smelling fresh. This has become our second home and we could not think of staying anywhere else while we are in town. Will not disappoint.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded September 20, 2017</t>
   </si>
   <si>
@@ -318,6 +453,57 @@
     <t>Friendly and wonderfully helpful staff, new facilities, big rooms, clean sheets. Breakfast included with stay. This continue to be one of my preferred places to stay when in Houston for work. The staff really make the difference. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r503232803-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>503232803</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>A newer hotel that is centrally located to Hobby Airport and many shopping and dinning establishment. The Sam Houston Parkway and 45 freeway are minutes away. You can be in DT Houston within 20 mins. The staff is nice, good selection of complimentary breakfast items and the rooms are clean and spacious. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>A newer hotel that is centrally located to Hobby Airport and many shopping and dinning establishment. The Sam Houston Parkway and 45 freeway are minutes away. You can be in DT Houston within 20 mins. The staff is nice, good selection of complimentary breakfast items and the rooms are clean and spacious. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r499497014-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>499497014</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Lovely stay</t>
+  </si>
+  <si>
+    <t>We had a little 'staycation' while our home is being painted and we spent only a night at Residence Inn. We called the day before and Shannon surprised us with an upgrade so we have a stove in our room for baking a cake. While checking in, we were told there was a Wed night social in making s'mores with complimentary wine and beverages. Our one bedroom was wonderful where I was able to relax and baked my cake. Then the social was fun where we had some beers and made s'mores at 95'F. It was still hot at 8 pm in Texas!The hotel has a few restaurants nearby and the staffs gave some restaurants' recommendations. We ended up trying Freddy's that was just opened for 2 days. Overall, we really enjoyed our stay and would consider this place again for our next staycation!MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>We had a little 'staycation' while our home is being painted and we spent only a night at Residence Inn. We called the day before and Shannon surprised us with an upgrade so we have a stove in our room for baking a cake. While checking in, we were told there was a Wed night social in making s'mores with complimentary wine and beverages. Our one bedroom was wonderful where I was able to relax and baked my cake. Then the social was fun where we had some beers and made s'mores at 95'F. It was still hot at 8 pm in Texas!The hotel has a few restaurants nearby and the staffs gave some restaurants' recommendations. We ended up trying Freddy's that was just opened for 2 days. Overall, we really enjoyed our stay and would consider this place again for our next staycation!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r495100509-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -393,6 +579,57 @@
     <t>As you travel to this hotel from the airport and get closer , you realize you may not be in the best part of town but once you arrive at the Hotel, you see it is brand-new (built within the last year) and there are restaurants across the street that are new and in general the area around the hotel is quite safe.The rooms are fairly modern and it was a very pleasant stay.  The manager at the front desk as well as several of the employees working the front desk were extremely friendly and accommodating. The hotel and room was very clean.Five stars!   Very happy with this hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r483544726-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>483544726</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Terrific</t>
+  </si>
+  <si>
+    <t>Good location close to restaurants and other entertainment venues.  All within walking distance.  Good breakfast and happy hour at the hotel.  Nice pool and workout area in the hotel.  Relaxed environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Good location close to restaurants and other entertainment venues.  All within walking distance.  Good breakfast and happy hour at the hotel.  Nice pool and workout area in the hotel.  Relaxed environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r481453884-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>481453884</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn Pasadena, TX</t>
+  </si>
+  <si>
+    <t>The Residence Inn is an extended stay type of property, but can certainly be an option for one or a few nights as well. The hotel is rather new and boasts a very modern decor and layout. Four floors of suites that include a kitchenette, sitting area, a large desk, and sleeping area. The guestroom for my stay was extremely clean, as were the public/common areas. There is an outdoor pool and sundeck to enjoy the south Texas weather. To top off the visit, the staff were extremely pleasant and professional. This will be my new go to when back in this area. I'm looking forward to coming back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>The Residence Inn is an extended stay type of property, but can certainly be an option for one or a few nights as well. The hotel is rather new and boasts a very modern decor and layout. Four floors of suites that include a kitchenette, sitting area, a large desk, and sleeping area. The guestroom for my stay was extremely clean, as were the public/common areas. There is an outdoor pool and sundeck to enjoy the south Texas weather. To top off the visit, the staff were extremely pleasant and professional. This will be my new go to when back in this area. I'm looking forward to coming back. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r475672604-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -429,9 +666,6 @@
     <t>04/13/2017</t>
   </si>
   <si>
-    <t>Great Stay</t>
-  </si>
-  <si>
     <t>Wonderful new hotel.  Rooms are fabulous with the kitchen area and sitting areas.  Love the bathroom.  Property in clean and well kept. Stay very nice and professional.  Great location easy in/out.  Breakfast was good.MoreShow less</t>
   </si>
   <si>
@@ -474,6 +708,48 @@
     <t>cannot ask for moreThis facility has the best staff, service and amenities.The interiors and exteriors are beautiful and professionally designed. The rooms are awesome. The frontdesk folks are always cheerful and helpful. The folks at the breakfast area are very professional, replenish food items as and when necessary - wonderful service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r473136048-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>473136048</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night. Front desk was wonderful. Room was excellent and very roomy. A lot of selection for breakfast. Clean, quiet, modern, close to many restaurants, easy access. Very pleased with this hotel and location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shannon R, Front Office Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night. Front desk was wonderful. Room was excellent and very roomy. A lot of selection for breakfast. Clean, quiet, modern, close to many restaurants, easy access. Very pleased with this hotel and location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r473048995-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>473048995</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>spring break last minute get away</t>
+  </si>
+  <si>
+    <t>I was able to secure a room here at the last minute. Room was nice check in was a breeze and the staff very nice. Breakfast during spring break was chaotic right before the buffet closed but small hiccup. New hotel would stay again felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was able to secure a room here at the last minute. Room was nice check in was a breeze and the staff very nice. Breakfast during spring break was chaotic right before the buffet closed but small hiccup. New hotel would stay again felt safe.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r472519138-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -528,6 +804,45 @@
     <t>Excellent stay for spring break! Nice rooms, free breakfast, friendly and professional staff and very clean. Rooms were very spacious and interior was very beautiful. Close to all the attractions. Would definitely recommend this hotel to family and friends. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r458529776-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>458529776</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vice President </t>
+  </si>
+  <si>
+    <t>Our stay was absolutely amazing!!! The management and their staff was always visible and remember us my name!!  The hotel was spotless. The food and food staff was quality and excellent.  The rooms are great. We travel all over the U.S. this is the best hotel ever!!! We can't wait to get back.MoreShow less</t>
+  </si>
+  <si>
+    <t>ACDupont, General Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Our stay was absolutely amazing!!! The management and their staff was always visible and remember us my name!!  The hotel was spotless. The food and food staff was quality and excellent.  The rooms are great. We travel all over the U.S. this is the best hotel ever!!! We can't wait to get back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r458528419-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>458528419</t>
+  </si>
+  <si>
+    <t>Great New Hotel</t>
+  </si>
+  <si>
+    <t>Brand new hotel in a convenient location.  Stayed in a studio suite which was very large and had a large bathroom.  Unlike previous reviewers I had NO issues with wi-fi or noise from neighbors or hallway.  Breakfast had a lot of choices.  Location was very easy to find and was 15 minutes from Hobby airport and 30 minutes from downtown Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new hotel in a convenient location.  Stayed in a studio suite which was very large and had a large bathroom.  Unlike previous reviewers I had NO issues with wi-fi or noise from neighbors or hallway.  Breakfast had a lot of choices.  Location was very easy to find and was 15 minutes from Hobby airport and 30 minutes from downtown Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r454362799-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -603,10 +918,39 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>When you go to a new place, you hope for the best. Well, this hotel was exactly that. Conveniently located southeast of Houston's Hobby Airport, it was easy to get to and get in and out of.The hotel itself is almost brand new. The lobby has a fresh, modern feel and the room was just perfect. As a Residence Inn, the hotel equips it's rooms with cooktop, microwave, dishwasher, and full-sized fridge.  You never really have to leave if you don't want to. If you do choose to go explore, there is abundant shopping and plenty of places to eat close by.The hotel has a staff that is very friendly. We were greeted each time we came in, came down for breakfast, or passed by the desk on our way out.Breakfast is not quite restaurant-quality but remember: it's included with your stay, and there is a nice selection: scrambled eggs, breakfast meats, oatmeal, fresh waffles, and of course cold choices like cereal, fruit, and yogurt.We stayed using reward points, so I can't speak to value for your money, but all in all I highly recommend the property and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d10150332-r435432613-Residence_Inn_by_Marriott_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>435432613</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Beautiful brand new hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in many Marriott "family of brand" hotels but never at Residence Inn until this past weekend. This hotel opened early September this year so it is brand new. 
+I must say the staff here was fabulous. They were eager to help with anything I needed, they even gave me a roll of Tums at no charge because what I ate didn't agree with me. 
+There was free parking, free continental breakfast with lots of hot &amp; cold food, outdoor pool, outdoor patio with a fire pit and 2 grills so you can grill your own food. No restaurant but had a small fridge and wine cooler in the lobby area to buy food &amp; wine. Also, there are lots of name brand restaurants very close by. 
+There was a small but efficient workout facility. The lobby has a large flat screen TV and a lot of seating areas should multiple families/couples want to sit and converse in private.
+I booked a studio suite which was just like a NYC apartment, small but a great use of space. The room had a full kitchen which included....full size fridge, small dishwasher, 2 burner cook-top, upper and lower cabinets, dishes, pans, coffee maker &amp; bar with 2 bar stools for eating.  The seating area had a corner sofa which turns into a double bed (very comfortable) along with a desk and office chair plus a large flat screen TV which...I have stayed in many Marriott "family of brand" hotels but never at Residence Inn until this past weekend. This hotel opened early September this year so it is brand new. I must say the staff here was fabulous. They were eager to help with anything I needed, they even gave me a roll of Tums at no charge because what I ate didn't agree with me. There was free parking, free continental breakfast with lots of hot &amp; cold food, outdoor pool, outdoor patio with a fire pit and 2 grills so you can grill your own food. No restaurant but had a small fridge and wine cooler in the lobby area to buy food &amp; wine. Also, there are lots of name brand restaurants very close by. There was a small but efficient workout facility. The lobby has a large flat screen TV and a lot of seating areas should multiple families/couples want to sit and converse in private.I booked a studio suite which was just like a NYC apartment, small but a great use of space. The room had a full kitchen which included....full size fridge, small dishwasher, 2 burner cook-top, upper and lower cabinets, dishes, pans, coffee maker &amp; bar with 2 bar stools for eating.  The seating area had a corner sofa which turns into a double bed (very comfortable) along with a desk and office chair plus a large flat screen TV which swivels to be viewed in either sleeping or seating area. Sleeping area had a king size bed (again very comfortable) with 2 night stands and ample lighting. Also there are 2 individual reading lights in case your partner goes to bed before you do. The bathroom was very spacious with a large walk in shower. Great large mirror with a separate special back lighting for applying make up. The hotel does supply shampoo, conditioner, soap and hair dryer. There is no bath tub so if you have little ones this might not work for you. There was a large closet equipped with a iron and iron board plus there was a 3 drawer cabinet for clothes storage. There were LOTS of plug ins and charging stations all over the suite so no need to worry about battery life in any electronic device. The only negative I have is the Wi-Fi isn't reliable. My i-phone connected fine but my parents have Samsung phones which wouldn't connect for some reason. My guess the reasoning is because the hotel is so new so some bugs will have to be fixed but I have no doubt they will get it resolved.This room was very comfortable for my long weekend stay and I highly recommend it anyone who doesn't need the bath tub. Thank you to all the staff for the great hospitality during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>ACDupont, General Manager at Residence Inn by Marriott Houston Pasadena, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in many Marriott "family of brand" hotels but never at Residence Inn until this past weekend. This hotel opened early September this year so it is brand new. 
+I must say the staff here was fabulous. They were eager to help with anything I needed, they even gave me a roll of Tums at no charge because what I ate didn't agree with me. 
+There was free parking, free continental breakfast with lots of hot &amp; cold food, outdoor pool, outdoor patio with a fire pit and 2 grills so you can grill your own food. No restaurant but had a small fridge and wine cooler in the lobby area to buy food &amp; wine. Also, there are lots of name brand restaurants very close by. 
+There was a small but efficient workout facility. The lobby has a large flat screen TV and a lot of seating areas should multiple families/couples want to sit and converse in private.
+I booked a studio suite which was just like a NYC apartment, small but a great use of space. The room had a full kitchen which included....full size fridge, small dishwasher, 2 burner cook-top, upper and lower cabinets, dishes, pans, coffee maker &amp; bar with 2 bar stools for eating.  The seating area had a corner sofa which turns into a double bed (very comfortable) along with a desk and office chair plus a large flat screen TV which...I have stayed in many Marriott "family of brand" hotels but never at Residence Inn until this past weekend. This hotel opened early September this year so it is brand new. I must say the staff here was fabulous. They were eager to help with anything I needed, they even gave me a roll of Tums at no charge because what I ate didn't agree with me. There was free parking, free continental breakfast with lots of hot &amp; cold food, outdoor pool, outdoor patio with a fire pit and 2 grills so you can grill your own food. No restaurant but had a small fridge and wine cooler in the lobby area to buy food &amp; wine. Also, there are lots of name brand restaurants very close by. There was a small but efficient workout facility. The lobby has a large flat screen TV and a lot of seating areas should multiple families/couples want to sit and converse in private.I booked a studio suite which was just like a NYC apartment, small but a great use of space. The room had a full kitchen which included....full size fridge, small dishwasher, 2 burner cook-top, upper and lower cabinets, dishes, pans, coffee maker &amp; bar with 2 bar stools for eating.  The seating area had a corner sofa which turns into a double bed (very comfortable) along with a desk and office chair plus a large flat screen TV which swivels to be viewed in either sleeping or seating area. Sleeping area had a king size bed (again very comfortable) with 2 night stands and ample lighting. Also there are 2 individual reading lights in case your partner goes to bed before you do. The bathroom was very spacious with a large walk in shower. Great large mirror with a separate special back lighting for applying make up. The hotel does supply shampoo, conditioner, soap and hair dryer. There is no bath tub so if you have little ones this might not work for you. There was a large closet equipped with a iron and iron board plus there was a 3 drawer cabinet for clothes storage. There were LOTS of plug ins and charging stations all over the suite so no need to worry about battery life in any electronic device. The only negative I have is the Wi-Fi isn't reliable. My i-phone connected fine but my parents have Samsung phones which wouldn't connect for some reason. My guess the reasoning is because the hotel is so new so some bugs will have to be fixed but I have no doubt they will get it resolved.This room was very comfortable for my long weekend stay and I highly recommend it anyone who doesn't need the bath tub. Thank you to all the staff for the great hospitality during my stay.More</t>
   </si>
 </sst>
 </file>
@@ -1141,27 +1485,37 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1177,7 +1531,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1186,47 +1540,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1592,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1251,47 +1601,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1307,7 +1653,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1316,26 +1662,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1346,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1368,7 +1710,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1377,43 +1719,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1429,7 +1775,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1438,43 +1784,47 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1490,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1499,36 +1849,28 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1579,32 +1921,28 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1620,7 +1958,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1629,25 +1967,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1659,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1681,7 +2019,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1690,49 +2028,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1748,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1757,25 +2089,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1787,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -1809,7 +2141,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1818,25 +2150,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1848,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1870,7 +2202,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1879,43 +2211,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
@@ -1931,7 +2267,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1940,43 +2276,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -1992,7 +2332,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2001,43 +2341,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
@@ -2053,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2062,25 +2406,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2092,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -2114,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2123,49 +2467,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -2181,7 +2519,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2190,26 +2528,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s">
-        <v>194</v>
-      </c>
-      <c r="O19" t="s">
-        <v>195</v>
-      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2220,13 +2554,895 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>281</v>
+      </c>
+      <c r="X30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>290</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>115</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>291</v>
+      </c>
+      <c r="X32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>306</v>
+      </c>
+      <c r="X33" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
